--- a/份额资金投入记录.xlsx
+++ b/份额资金投入记录.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -399,10 +399,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>43838</v>
+      </c>
       <c r="B2">
         <v>10000</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="E2">
         <v>10000</v>
       </c>
     </row>
